--- a/result/nonstandard.xlsx
+++ b/result/nonstandard.xlsx
@@ -14,6 +14,9 @@
   <sheets>
     <sheet name="nonstandard" sheetId="1" r:id="rId1"/>
     <sheet name="工作表1" sheetId="2" r:id="rId2"/>
+    <sheet name="PTD" sheetId="3" r:id="rId3"/>
+    <sheet name="P" sheetId="4" r:id="rId4"/>
+    <sheet name="TD" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
@@ -28,17 +31,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="7">
   <si>
     <t>cate</t>
   </si>
   <si>
     <t>rowname</t>
-  </si>
-  <si>
-    <t>Part-time,
-temporary or
-dispatched workers</t>
   </si>
   <si>
     <t>Total</t>
@@ -47,13 +45,18 @@
     <t>15-24 years</t>
   </si>
   <si>
-    <t>Part-time
-workers</t>
+    <t>Part-time,
+temporary or
+dispatched workers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Temporary or
-dispatched
-workers</t>
+    <t>Part-time workers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Temporary or dispatched workers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -97,8 +100,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -379,7 +385,7 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -413,12 +419,12 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
+    <row r="2" spans="1:9" ht="60" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
         <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
       </c>
       <c r="C2">
         <v>6.5</v>
@@ -444,7 +450,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3">
         <v>25.44</v>
@@ -468,12 +474,12 @@
         <v>23.53</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
+    <row r="4" spans="1:9" ht="30" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4">
         <v>3.54</v>
@@ -499,7 +505,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5">
         <v>19.809999999999999</v>
@@ -523,12 +529,12 @@
         <v>16.3</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
+    <row r="6" spans="1:9" ht="45" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6">
         <v>4.97</v>
@@ -554,7 +560,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C7">
         <v>19.13</v>
@@ -589,29 +595,29 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection sqref="A1:G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
       <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
       <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
         <v>3</v>
-      </c>
-      <c r="G1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
@@ -772,6 +778,309 @@
         <v>5.55</v>
       </c>
       <c r="G8">
+        <v>20.309999999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>2011</v>
+      </c>
+      <c r="B2">
+        <v>6.5</v>
+      </c>
+      <c r="C2">
+        <v>25.44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>2012</v>
+      </c>
+      <c r="B3">
+        <v>6.79</v>
+      </c>
+      <c r="C3">
+        <v>24.15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>2013</v>
+      </c>
+      <c r="B4">
+        <v>6.94</v>
+      </c>
+      <c r="C4">
+        <v>25.28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>2014</v>
+      </c>
+      <c r="B5">
+        <v>6.93</v>
+      </c>
+      <c r="C5">
+        <v>25.87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>2015</v>
+      </c>
+      <c r="B6">
+        <v>6.98</v>
+      </c>
+      <c r="C6">
+        <v>24.74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>2016</v>
+      </c>
+      <c r="B7">
+        <v>7.04</v>
+      </c>
+      <c r="C7">
+        <v>24.31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>2017</v>
+      </c>
+      <c r="B8">
+        <v>7.11</v>
+      </c>
+      <c r="C8">
+        <v>23.53</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E17" sqref="E16:E17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>2011</v>
+      </c>
+      <c r="B2">
+        <v>3.54</v>
+      </c>
+      <c r="C2">
+        <v>19.809999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>2012</v>
+      </c>
+      <c r="B3">
+        <v>3.61</v>
+      </c>
+      <c r="C3">
+        <v>19.48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>2013</v>
+      </c>
+      <c r="B4">
+        <v>3.66</v>
+      </c>
+      <c r="C4">
+        <v>18.48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>2014</v>
+      </c>
+      <c r="B5">
+        <v>3.6</v>
+      </c>
+      <c r="C5">
+        <v>18.48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>2015</v>
+      </c>
+      <c r="B6">
+        <v>3.62</v>
+      </c>
+      <c r="C6">
+        <v>17.62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>2016</v>
+      </c>
+      <c r="B7">
+        <v>3.65</v>
+      </c>
+      <c r="C7">
+        <v>16.57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>2017</v>
+      </c>
+      <c r="B8">
+        <v>3.68</v>
+      </c>
+      <c r="C8">
+        <v>16.3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I33" sqref="I33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>2011</v>
+      </c>
+      <c r="B2">
+        <v>4.97</v>
+      </c>
+      <c r="C2">
+        <v>19.13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>2012</v>
+      </c>
+      <c r="B3">
+        <v>5.29</v>
+      </c>
+      <c r="C3">
+        <v>20.02</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>2013</v>
+      </c>
+      <c r="B4">
+        <v>5.39</v>
+      </c>
+      <c r="C4">
+        <v>21.37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>2014</v>
+      </c>
+      <c r="B5">
+        <v>5.41</v>
+      </c>
+      <c r="C5">
+        <v>22.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>2015</v>
+      </c>
+      <c r="B6">
+        <v>5.47</v>
+      </c>
+      <c r="C6">
+        <v>21.13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>2016</v>
+      </c>
+      <c r="B7">
+        <v>5.52</v>
+      </c>
+      <c r="C7">
+        <v>21.15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>2017</v>
+      </c>
+      <c r="B8">
+        <v>5.55</v>
+      </c>
+      <c r="C8">
         <v>20.309999999999999</v>
       </c>
     </row>
